--- a/excel/Campamento.xlsx
+++ b/excel/Campamento.xlsx
@@ -37,7 +37,8 @@
     <t>Perez</t>
   </si>
   <si>
-    <t>http://localhost/campamento/datos_alumno.php?id=1</t>
+    <t xml:space="preserve">http://172.30.1.252/campamento/datos_alumno.php?id=1
+</t>
   </si>
   <si>
     <t>Maria</t>
@@ -46,7 +47,7 @@
     <t>Lopez</t>
   </si>
   <si>
-    <t>http://localhost/campamento/datos_alumno.php?id=2</t>
+    <t>http://172.30.1.252/campamento/datos_alumno.php?id=2</t>
   </si>
   <si>
     <t>Pedro</t>
@@ -55,7 +56,7 @@
     <t>Garcia</t>
   </si>
   <si>
-    <t>http://localhost/campamento/datos_alumno.php?id=3</t>
+    <t>http://172.30.1.252/campamento/datos_alumno.php?id=3</t>
   </si>
   <si>
     <t>Ana</t>
@@ -64,7 +65,7 @@
     <t>Martinez</t>
   </si>
   <si>
-    <t>http://localhost/campamento/datos_alumno.php?id=4</t>
+    <t>http://172.30.1.252/campamento/datos_alumno.php?id=4</t>
   </si>
   <si>
     <t>Luis</t>
@@ -73,7 +74,7 @@
     <t>Sanchez</t>
   </si>
   <si>
-    <t>http://localhost/campamento/datos_alumno.php?id=5</t>
+    <t>http://172.30.1.252/campamento/datos_alumno.php?id=5</t>
   </si>
   <si>
     <t>Carlos</t>
@@ -82,7 +83,7 @@
     <t>Gomez</t>
   </si>
   <si>
-    <t>http://localhost/campamento/datos_alumno.php?id=6</t>
+    <t>http://172.30.1.252/campamento/datos_alumno.php?id=6</t>
   </si>
   <si>
     <t>Laura</t>
@@ -91,7 +92,7 @@
     <t>Fernandez</t>
   </si>
   <si>
-    <t>http://localhost/campamento/datos_alumno.php?id=7</t>
+    <t>http://172.30.1.252/campamento/datos_alumno.php?id=7</t>
   </si>
   <si>
     <t>Sofia</t>
@@ -109,7 +110,7 @@
     <t>Hernandez</t>
   </si>
   <si>
-    <t>http://localhost/campamento/datos_alumno.php?id=9</t>
+    <t>http://172.30.1.252/campamento/datos_alumno.php?id=9</t>
   </si>
   <si>
     <t>Lucia</t>
@@ -118,7 +119,7 @@
     <t>Alvarez</t>
   </si>
   <si>
-    <t>http://localhost/campamento/datos_alumno.php?id=10</t>
+    <t>http://172.30.1.252/campamento/datos_alumno.php?id=10</t>
   </si>
 </sst>
 </file>
@@ -429,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="59.25" customHeight="1">
+    <row r="2" ht="191.25" customHeight="1">
       <c r="A2" s="2">
         <v>1.0</v>
       </c>
